--- a/data/trans_camb/P32C-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.5654084920323438</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.9567572392486857</v>
+        <v>-0.9567572392486855</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.7717813519687841</v>
@@ -664,7 +664,7 @@
         <v>-0.6545189502577016</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.6325848275128492</v>
+        <v>-0.6325848275128491</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5700205719159591</v>
+        <v>-0.7953503580855311</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.269215966040157</v>
+        <v>-2.183275091101498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.520402105422551</v>
+        <v>-2.618265174027318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.879426116135237</v>
+        <v>-3.875419088505515</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.840569257764997</v>
+        <v>-4.680384885152498</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.635662504408618</v>
+        <v>-2.293382665219354</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8728298572242905</v>
+        <v>-0.8507657840318585</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.974411226097719</v>
+        <v>-1.792904943331259</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.044020753642324</v>
+        <v>-1.964229369325467</v>
       </c>
     </row>
     <row r="6">
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.116408725263328</v>
+        <v>4.235513001124295</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9880662041838212</v>
+        <v>1.067420333484464</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.004313581009253673</v>
+        <v>0.2378867162484846</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
@@ -725,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.579582871362701</v>
+        <v>1.553794640657703</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.394620725341852</v>
+        <v>2.459476863778088</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4351096924970067</v>
+        <v>0.333054517983681</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2625157782004213</v>
+        <v>0.2971609125663658</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4549309426356516</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.7698124079466242</v>
+        <v>-0.7698124079466241</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-1</v>
@@ -769,7 +769,7 @@
         <v>-0.5960266305879846</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5760526920650887</v>
+        <v>-0.5760526920650886</v>
       </c>
     </row>
     <row r="8">
@@ -779,16 +779,14 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.5248815085325744</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.5794844670745184</v>
+        <v>-0.6154646037278384</v>
       </c>
       <c r="J8" s="6" t="inlineStr"/>
       <c r="K8" s="6" t="inlineStr"/>
@@ -800,16 +798,14 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>8.98986342088941</v>
-      </c>
+      <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>5.599633287225893</v>
+        <v>5.797263906557604</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
       <c r="K9" s="6" t="inlineStr"/>
@@ -832,7 +828,7 @@
         <v>0.9484955382110126</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3503073610743072</v>
+        <v>0.3503073610743069</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.6721939020330293</v>
@@ -861,31 +857,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.930609745853868</v>
+        <v>-1.148934594668005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.561389422942256</v>
+        <v>-1.473870391513203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.075664710084895</v>
+        <v>-2.217500532104226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.396210490972577</v>
+        <v>-3.702107267699609</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.389040112388215</v>
+        <v>-3.388183167482625</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.358341715750843</v>
+        <v>-3.381044867345397</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.9392331039298242</v>
+        <v>-0.9353014171038114</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.345405590610389</v>
+        <v>-1.446022262538892</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.718354891615947</v>
+        <v>-1.686412248265088</v>
       </c>
     </row>
     <row r="12">
@@ -896,13 +892,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.544305476492505</v>
+        <v>4.207405868991605</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.277748466465925</v>
+        <v>3.41294333838302</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.981558170341592</v>
+        <v>1.999081859455041</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
@@ -914,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.502331081576413</v>
+        <v>2.372173925255853</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.470809745343884</v>
+        <v>1.405131676879835</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.034609713129898</v>
+        <v>1.049695345236529</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +933,7 @@
         <v>1.198424569669852</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.442613519552752</v>
+        <v>0.4426135195527519</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-1</v>
@@ -1010,7 +1006,7 @@
         <v>-0.3895377731283409</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.4877054346150213</v>
+        <v>-0.4877054346150215</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0</v>
@@ -1039,13 +1035,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.351124452992093</v>
+        <v>-2.202884365273531</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.120216561440242</v>
+        <v>-1.965181294338417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.311389351989545</v>
+        <v>-2.115924235815707</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
@@ -1053,13 +1049,13 @@
       </c>
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="n">
-        <v>-1.897010474356254</v>
+        <v>-1.872545337460273</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.584548377049556</v>
+        <v>-1.568574059921297</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.957014655233241</v>
+        <v>-1.978583771051594</v>
       </c>
     </row>
     <row r="18">
@@ -1070,27 +1066,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.142230621434304</v>
+        <v>1.073649061339972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.767069054526553</v>
+        <v>1.43784697674249</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.364768551174464</v>
+        <v>1.418532213507439</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>9.971533868215184</v>
+        <v>9.841044488080062</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.9432934134460397</v>
+        <v>0.9647608614115016</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.801015172346834</v>
+        <v>1.968975311236717</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.028665434868392</v>
+        <v>1.126460862692119</v>
       </c>
     </row>
     <row r="19">
@@ -1107,7 +1103,7 @@
         <v>-0.2482360325368282</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3107941526779606</v>
+        <v>-0.3107941526779607</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr">
@@ -1134,7 +1130,7 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8914316011228033</v>
+        <v>-0.8806668732519122</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
@@ -1146,11 +1142,9 @@
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.8825176312307769</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>-0.8250569990804871</v>
-      </c>
+        <v>-0.8799671125551565</v>
+      </c>
+      <c r="J20" s="6" t="inlineStr"/>
       <c r="K20" s="6" t="n">
         <v>-1</v>
       </c>
@@ -1163,25 +1157,23 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.868037519655378</v>
+        <v>1.92434157003913</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.210417113262892</v>
+        <v>2.341358567066566</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.638333937952285</v>
+        <v>2.520131946919802</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.122500460155034</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>3.529379038469878</v>
-      </c>
+        <v>2.110017455311307</v>
+      </c>
+      <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>1.843002171780705</v>
+        <v>2.284775355162939</v>
       </c>
     </row>
     <row r="22">
@@ -1231,31 +1223,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.071500253430092</v>
+        <v>-2.104319611144498</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.251930590334958</v>
+        <v>-2.293711004395398</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.119402440260516</v>
+        <v>-2.967252236488749</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.005585096647072</v>
+        <v>-3.231096198184453</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.689586580319923</v>
+        <v>-2.665427261075516</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.103769664497103</v>
+        <v>-1.033924313709755</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.88318776625882</v>
+        <v>-1.85731025739065</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.929171882948863</v>
+        <v>-1.907040165830572</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.036595100393254</v>
+        <v>-2.154181087051255</v>
       </c>
     </row>
     <row r="24">
@@ -1266,31 +1258,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.187138044132179</v>
+        <v>1.224796394734229</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9898784014033432</v>
+        <v>1.01406096325285</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1556172211610866</v>
+        <v>0.1313041271691871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8738802824439358</v>
+        <v>0.8651417796411605</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.088259801616673</v>
+        <v>1.092198438787877</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.190131801295125</v>
+        <v>4.278802775820869</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7902153832577172</v>
+        <v>0.8206730031898255</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.599054475333188</v>
+        <v>0.6843534550322051</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6608515398904021</v>
+        <v>0.7261400673760291</v>
       </c>
     </row>
     <row r="25">
@@ -1336,25 +1328,25 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6099433561692372</v>
+        <v>-0.5957780823748396</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6547949520604737</v>
+        <v>-0.6608828276923976</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8315586667644262</v>
+        <v>-0.8295522625968498</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.641320213397975</v>
+        <v>-0.6433402403465086</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6561342310542377</v>
+        <v>-0.633110648842968</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7222747077152144</v>
+        <v>-0.7516996268648777</v>
       </c>
     </row>
     <row r="27">
@@ -1365,25 +1357,25 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.791781358902342</v>
+        <v>0.8815334777398085</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.663154691204526</v>
+        <v>0.6048238826498988</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2488495809621925</v>
+        <v>0.2386764406216018</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>0.5598065230791884</v>
+        <v>0.6413612053440455</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5169556521645876</v>
+        <v>0.5309483167295939</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4851598282055385</v>
+        <v>0.5307969337895284</v>
       </c>
     </row>
     <row r="28">
@@ -1433,31 +1425,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.999573778613682</v>
+        <v>-3.004914961562541</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.901441009757713</v>
+        <v>-3.603212769993822</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.181111071552732</v>
+        <v>-3.16237851552179</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.714950908148366</v>
+        <v>-5.979734751916193</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.501642328775291</v>
+        <v>-6.643738657273309</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.490919437720513</v>
+        <v>-5.187998048331732</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.900457073758352</v>
+        <v>-2.917620940424364</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.319241244668489</v>
+        <v>-3.329473814119678</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.633581043107859</v>
+        <v>-2.806867034059155</v>
       </c>
     </row>
     <row r="30">
@@ -1468,31 +1460,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.823677886143206</v>
+        <v>2.742271754635603</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.834260311867214</v>
+        <v>1.838255851785774</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.499784045073624</v>
+        <v>2.744404631094325</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.557865314973458</v>
+        <v>0.5515917390102338</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.716214636948365</v>
+        <v>1.48741068000429</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.418844738126035</v>
+        <v>1.45568135708412</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7720542679856515</v>
+        <v>0.6290303148369889</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.550919577685864</v>
+        <v>1.570224396323073</v>
       </c>
     </row>
     <row r="31">
@@ -1538,25 +1530,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.634683745960161</v>
+        <v>-0.6584892601307291</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7790780478829697</v>
+        <v>-0.7859690542274663</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6679713024688146</v>
+        <v>-0.6492704978038718</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.6895107362093842</v>
+        <v>-0.6980572912895215</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.820074839603651</v>
+        <v>-0.8190925879666627</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6619295386860397</v>
+        <v>-0.6763586081364148</v>
       </c>
     </row>
     <row r="33">
@@ -1567,25 +1559,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.401259063636501</v>
+        <v>2.281512765172702</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.385599118708862</v>
+        <v>1.295500983272322</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.797344989703149</v>
+        <v>2.073805171367537</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>1.205447739788288</v>
+        <v>1.186704964084313</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8137957830219352</v>
+        <v>0.6948679210018963</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.156494230975347</v>
+        <v>1.186657492962307</v>
       </c>
     </row>
     <row r="34">
@@ -1624,7 +1616,7 @@
         <v>0.3521806940639228</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.1909034743519581</v>
+        <v>0.1909034743519583</v>
       </c>
     </row>
     <row r="35">
@@ -1635,31 +1627,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.497239379346477</v>
+        <v>-1.491301420549602</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.727651249046638</v>
+        <v>-1.634397130351473</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.726385776725647</v>
+        <v>-3.81228534186995</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.770073630791176</v>
+        <v>-2.794627344810683</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.537161811776661</v>
+        <v>-1.644750619986511</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.39849445421546</v>
+        <v>-1.399871928874427</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.684385464304139</v>
+        <v>-1.700972446542738</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.075994489650476</v>
+        <v>-1.095685100643805</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.154049780066681</v>
+        <v>-1.417920618591725</v>
       </c>
     </row>
     <row r="36">
@@ -1670,31 +1662,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.718536337106428</v>
+        <v>3.689103011500568</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.432288118569014</v>
+        <v>2.857430255973399</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>0.6507199482762523</v>
+        <v>0.4021300948359108</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.10142386527737</v>
+        <v>2.013158075896642</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.625523053002875</v>
+        <v>7.359925983303094</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>0.9576382387137168</v>
+        <v>0.9392886725817988</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.827868504314203</v>
+        <v>1.817751523845771</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.129025995658248</v>
+        <v>3.775848447988077</v>
       </c>
     </row>
     <row r="37">
@@ -1729,7 +1721,7 @@
         <v>0.4111324174751613</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2228589137270603</v>
+        <v>0.2228589137270605</v>
       </c>
     </row>
     <row r="38">
@@ -1747,7 +1739,7 @@
       <c r="H38" s="6" t="inlineStr"/>
       <c r="I38" s="6" t="inlineStr"/>
       <c r="J38" s="6" t="n">
-        <v>-0.80507756098723</v>
+        <v>-0.7925870258070683</v>
       </c>
       <c r="K38" s="6" t="inlineStr"/>
     </row>
@@ -1795,7 +1787,7 @@
         <v>-0.3629389797198674</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0.2172537004260861</v>
+        <v>0.2172537004260863</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.1365713543773926</v>
@@ -1804,7 +1796,7 @@
         <v>-0.337137185638558</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.3850813643664094</v>
+        <v>-0.3850813643664096</v>
       </c>
     </row>
     <row r="41">
@@ -1815,31 +1807,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8387624370791247</v>
+        <v>-0.7756202149282028</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.093031995021546</v>
+        <v>-1.146737287218338</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.451775492582055</v>
+        <v>-1.466650855513316</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.552967191354458</v>
+        <v>-1.484071920080386</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.322009323156105</v>
+        <v>-1.347254426339192</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-0.8156606421819809</v>
+        <v>-0.7762255095237403</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.8074098652688242</v>
+        <v>-0.8054894822263052</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.9242132287525298</v>
+        <v>-0.9723624918419497</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.030898979408861</v>
+        <v>-1.036284663732133</v>
       </c>
     </row>
     <row r="42">
@@ -1850,31 +1842,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.004574735844248</v>
+        <v>1.004601826215616</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.5737294747138562</v>
+        <v>0.5249096337874376</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.1257983510065655</v>
+        <v>0.06229139795751579</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-0.009221187186456094</v>
+        <v>-0.001646173158289921</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.3652526491398223</v>
+        <v>0.3124749795802406</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1.237784053454118</v>
+        <v>1.292277006054353</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.506219449545158</v>
+        <v>0.5313514421873573</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.281599496310399</v>
+        <v>0.2925418023567382</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.2515227567699217</v>
+        <v>0.2755259238846813</v>
       </c>
     </row>
     <row r="43">
@@ -1900,7 +1892,7 @@
         <v>-0.3969080075593196</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2375874132824287</v>
+        <v>0.2375874132824289</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.0870971031651654</v>
@@ -1909,7 +1901,7 @@
         <v>-0.2150060850772066</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.2455820363802131</v>
+        <v>-0.2455820363802132</v>
       </c>
     </row>
     <row r="44">
@@ -1920,31 +1912,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3573566516186806</v>
+        <v>-0.3451316294031864</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.485414826297769</v>
+        <v>-0.486566360873567</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6115374561574984</v>
+        <v>-0.6470360480436208</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.9402291131064068</v>
+        <v>-1</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.8315388033756661</v>
+        <v>-0.8336775572365471</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.6110855914007832</v>
+        <v>-0.6222279349395673</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.407560937082715</v>
+        <v>-0.4256551494832183</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4853576098526257</v>
+        <v>-0.5041167471359493</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.5376799174364608</v>
+        <v>-0.5301457631155677</v>
       </c>
     </row>
     <row r="45">
@@ -1955,31 +1947,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7064256702336542</v>
+        <v>0.6649590082560323</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4000410757783241</v>
+        <v>0.3767667250667032</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1233987047036167</v>
+        <v>0.049333272119155</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3247386402641446</v>
+        <v>0.6996127059024074</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.156898199657755</v>
+        <v>0.7886410500945936</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.736366599725393</v>
+        <v>2.999449249061004</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4202842358013139</v>
+        <v>0.4623964489079659</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2479729634213758</v>
+        <v>0.2578363057857058</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2104741470777514</v>
+        <v>0.2419908812318412</v>
       </c>
     </row>
     <row r="46">
